--- a/T_H_CO2-A.1/BOM/BOM_PartType-T_H_CO2.xlsx
+++ b/T_H_CO2-A.1/BOM/BOM_PartType-T_H_CO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aivar\Desktop\imperium-iot\imperium-iot-hardware\T_H_CO2-A.1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D84BA39-1EEF-4F9C-901B-1F4BC34C9623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A75904-7843-444D-8829-223DD1CD97B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Comment</t>
   </si>
@@ -63,9 +63,6 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>PHN2-Footprint-1</t>
-  </si>
-  <si>
     <t>SCD40-D-R1</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>IC2</t>
   </si>
   <si>
-    <t>New footprint 1</t>
-  </si>
-  <si>
     <t>DHT11</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>R1, R2</t>
   </si>
   <si>
-    <t>RESC2013X60X35NL10T20</t>
-  </si>
-  <si>
     <t>0805</t>
   </si>
   <si>
@@ -103,6 +94,12 @@
   </si>
   <si>
     <t>DHT11 basic temperature-humidity sensor</t>
+  </si>
+  <si>
+    <t>Custom SMD</t>
+  </si>
+  <si>
+    <t>Custom TH</t>
   </si>
 </sst>
 </file>
@@ -547,7 +544,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -577,13 +574,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -594,13 +591,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -617,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -625,16 +622,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -642,16 +639,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -659,16 +656,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
